--- a/medicine/Enfance/Cinda_Williams_Chima/Cinda_Williams_Chima.xlsx
+++ b/medicine/Enfance/Cinda_Williams_Chima/Cinda_Williams_Chima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinda Williams Chima, née en 1952 à Springfield en Ohio, est une auteure américaine de fantasy pour jeunes adultes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née en 1952, Cinda Williams Chima est diplômée de l’université Case Western Reserve et de l’université d'Akron où elle est professeure. Chima est un membre actif de la Société des auteurs et illustrateurs de livres pour la jeunesse, et de la Science Fiction and Fantasy Writers of America.
 Elle est animatrice et intervenante dans des conférences d'écritures pour la Northern Ohio SCBWI Conference, la Western Reserve Writers' Conference, et la Skyline Writing Conference.
@@ -547,25 +561,139 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Heir Chronicles
-(en) The Warrior Heir, 2006
+          <t>Série Heir Chronicles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) The Warrior Heir, 2006
 (en) The Wizard Heir, 2007
 (en) The Dragon Heir, 2008
 (en) The Enchanter Heir, 2013
-(en) The Sorcerer Heir, 2014
-Univers Les Sept Royaumes
-Série Les Sept Royaumes
-Le Roi démon, Castelmore et Bragelonne, 2011 ((en) The Demon King, 2009), trad. Rosalie Guillaume
+(en) The Sorcerer Heir, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cinda_Williams_Chima</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cinda_Williams_Chima</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Univers Les Sept Royaumes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Les Sept Royaumes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Roi démon, Castelmore et Bragelonne, 2011 ((en) The Demon King, 2009), trad. Rosalie Guillaume
 La Reine exilée, Castelmore et Bragelonne, 2011 ((en) The Exiled Queen, 2010), trad. Emmanuelle Casse-Castric
 Le Trône du loup gris, Castelmore et Bragelonne, 2012 ((en) The Gray Wolf Throne, 2011), trad. Emmanuelle Casse-Castric
-La Couronne écarlate, Castelmore, 2013 ((en) The Crimson Crown, 2012), trad. Marianne Durand
-Série Shattered Realms
-(en) Flamecaster, 2016
+La Couronne écarlate, Castelmore, 2013 ((en) The Crimson Crown, 2012), trad. Marianne Durand</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cinda_Williams_Chima</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cinda_Williams_Chima</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Univers Les Sept Royaumes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Shattered Realms</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Flamecaster, 2016
 (en) Shadowcaster, 2017
 (en) Stormcaster, 2018
-(en) Deathcaster, 2019
-Série Runestone Saga
-(en) Children of Ragnarok, 2022</t>
+(en) Deathcaster, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cinda_Williams_Chima</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cinda_Williams_Chima</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Runestone Saga</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Children of Ragnarok, 2022</t>
         </is>
       </c>
     </row>
